--- a/part_3_cohere/analysis/dense_answer_relevance_results_data_jats.xlsx
+++ b/part_3_cohere/analysis/dense_answer_relevance_results_data_jats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE49D5-8B76-7B41-A8D9-8EB80859B311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A57E09-605C-1E49-A745-02420B188FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31200" yWindow="500" windowWidth="16180" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/part_3_cohere/analysis/dense_answer_relevance_results_data_jats.xlsx
+++ b/part_3_cohere/analysis/dense_answer_relevance_results_data_jats.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A57E09-605C-1E49-A745-02420B188FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E89639F-5F31-0549-A808-36BB373D34D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="500" windowWidth="16180" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="500" windowWidth="16180" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="raw_data" sheetId="1" r:id="rId2"/>
+    <sheet name="raw data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="51" r:id="rId3"/>
+    <pivotCache cacheId="73" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>Query</t>
   </si>
@@ -111,11 +111,6 @@
   </si>
   <si>
     <t>Tell me about OpenAlex.</t>
-  </si>
-  <si>
-    <t>Summary: OpenAlex is a fully open catalogue of the global research system that launched in January 2022.
-DOI: 10.1007/s11192-023-04923-y
-Is there anything else I can help you with, my lady?</t>
   </si>
   <si>
     <t>Summary: OpenAlex is a fully open catalogue of the global research system that launched in January 2022. It is a promising open source of scholarly metadata, and a competitor to established proprietary sources, such as the Web of Science and Scopus.
@@ -782,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -797,7 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -850,7 +844,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Poppy Riddle" refreshedDate="45915.549471874998" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="71" xr:uid="{3F51ABE9-E5E0-8C42-824E-7B717D2CA5FA}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:D72" sheet="raw_data"/>
+    <worksheetSource ref="B1:D71" sheet="raw data"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Query" numFmtId="0">
@@ -1247,7 +1241,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D04E8DD-658E-F945-A9F5-F557EF5BC2D7}" name="PivotTable13" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D04E8DD-658E-F945-A9F5-F557EF5BC2D7}" name="PivotTable13" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -1627,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB858A8D-54C2-0A40-B572-C14E08328A51}">
   <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1639,33 +1633,33 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="6">
+        <v>61</v>
+      </c>
+      <c r="B4">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
+        <v>19</v>
+      </c>
+      <c r="B5">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="6">
+        <v>77</v>
+      </c>
+      <c r="B6">
         <v>0.6</v>
       </c>
     </row>
@@ -1673,71 +1667,71 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6">
+        <v>49</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="6">
+        <v>67</v>
+      </c>
+      <c r="B9">
         <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="6">
+        <v>55</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="6">
+        <v>43</v>
+      </c>
+      <c r="B11">
         <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="6">
+        <v>73</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6">
+        <v>31</v>
+      </c>
+      <c r="B13">
         <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6">
+        <v>37</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6">
+        <v>25</v>
+      </c>
+      <c r="B15">
         <v>0.8</v>
       </c>
     </row>
@@ -1745,7 +1739,7 @@
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>0.6</v>
       </c>
     </row>
@@ -1753,15 +1747,15 @@
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="6">
+        <v>85</v>
+      </c>
+      <c r="B18">
         <v>0.6901408450704225</v>
       </c>
     </row>
@@ -1772,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1792,20 +1786,20 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1813,13 +1807,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1827,13 +1821,13 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1841,13 +1835,13 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1855,13 +1849,13 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1869,13 +1863,13 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1883,13 +1877,13 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1897,13 +1891,13 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1911,13 +1905,13 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1925,867 +1919,853 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="365" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="20">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="365" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="320" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="208" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="288" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="335" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="320" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="21">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="21">
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="240" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="208" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="395" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="176" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="365" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="365" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="380" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="B39" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="D35" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="395" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B42" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="D36" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="380" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="192" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="B44" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="B45" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="D38" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="B46" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="D39" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="18" t="s">
+      <c r="B47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="D40" s="17">
+      <c r="B48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="304" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="18" t="s">
+    <row r="49" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="D41" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="192" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="B49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="D42" s="17">
+      <c r="B50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="320" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="15" t="s">
+    <row r="51" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="B51" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="D43" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="256" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="D44" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="256" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="208" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="B53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="7">
-        <v>0</v>
+      <c r="D53" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="C57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="11">
-        <v>0</v>
+      <c r="D58" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="11">
-        <v>1</v>
+      <c r="D60" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="11">
-        <v>0</v>
+      <c r="C62" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="176" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="7">
+      <c r="D71" s="6">
         <v>0</v>
       </c>
     </row>
